--- a/src/assets/ClientesEjemplo.xlsx
+++ b/src/assets/ClientesEjemplo.xlsx
@@ -5,23 +5,23 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTIAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTIAN\Desktop\FrontEnd-Socrates-V2\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE51E786-4358-4360-8125-721AC398FAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84400D86-D95F-4B8C-A260-D882B839A3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>Primer Nombre</t>
   </si>
@@ -210,12 +210,6 @@
   </si>
   <si>
     <t>2024-05-01</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>VIP</t>
   </si>
   <si>
     <t>Número ID</t>
@@ -340,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -348,14 +342,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,8 +653,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,10 +688,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -724,7 +714,7 @@
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -745,13 +735,13 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1">
         <v>1091968522</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -760,7 +750,7 @@
         <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>48</v>
@@ -775,7 +765,7 @@
         <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -792,13 +782,13 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
@@ -807,7 +797,7 @@
         <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
         <v>49</v>
@@ -822,7 +812,7 @@
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -839,13 +829,13 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
@@ -854,7 +844,7 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
         <v>50</v>
@@ -869,7 +859,7 @@
         <v>60</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -886,13 +876,13 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -901,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
         <v>51</v>
@@ -916,7 +906,7 @@
         <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -933,13 +923,13 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
         <v>42</v>
@@ -948,7 +938,7 @@
         <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
         <v>52</v>
@@ -963,7 +953,7 @@
         <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +966,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{106A9ABD-5395-4211-A972-4C6B6FBD6670}">
           <x14:formula1>
             <xm:f>Hoja1!$B$4:$B$6</xm:f>
@@ -1001,6 +991,12 @@
           </x14:formula1>
           <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D283F1CB-3AEE-43D9-9CA1-4B3472259DEE}">
+          <x14:formula1>
+            <xm:f>Hoja1!$G$4:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>O1:O1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1012,7 +1008,7 @@
   <dimension ref="B3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G9:G10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,75 +1020,75 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>82</v>
+      <c r="G3" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
